--- a/test_tasks.xlsx
+++ b/test_tasks.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1160" windowWidth="28160" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="1080" windowWidth="28160" windowHeight="16100" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tasks" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>TASK-1</t>
   </si>
@@ -100,6 +100,33 @@
   </si>
   <si>
     <t>Max</t>
+  </si>
+  <si>
+    <t>TASK-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some story just in case </t>
+  </si>
+  <si>
+    <t>TASK-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tests for some story just in case </t>
+  </si>
+  <si>
+    <t>TASK-7, TASK-2</t>
+  </si>
+  <si>
+    <t>TASK-9</t>
+  </si>
+  <si>
+    <t>TASK-10</t>
+  </si>
+  <si>
+    <t>TASK-11</t>
+  </si>
+  <si>
+    <t>Add new page</t>
   </si>
 </sst>
 </file>
@@ -440,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,6 +647,97 @@
       </c>
       <c r="F13">
         <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
